--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
-    <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateTask" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
+    <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:J33"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>User</t>
   </si>
@@ -149,16 +150,97 @@
   <si>
     <t>you54@gmail.com</t>
   </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Project Phase</t>
+  </si>
+  <si>
+    <t>Plan Hour</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Tag of project</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Work Summary</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>Tag of work</t>
+  </si>
+  <si>
+    <t>TSC_General _Non project works</t>
+  </si>
+  <si>
+    <t>Trang-Le Thi Trang</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Open ERP</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>03/19/2016 20:14:11</t>
+  </si>
+  <si>
+    <t>VSII Admin</t>
+  </si>
+  <si>
+    <t>TM03</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>http://118.70.170.128:8068/?db=VSIIERPdemo#view_type=form&amp;model=project.task&amp;action</t>
+  </si>
+  <si>
+    <t>TM04</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,8 +248,17 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -269,6 +360,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -331,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +471,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +506,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,23 +682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -599,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -607,12 +717,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -626,7 +736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -637,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -648,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -659,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -668,7 +778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -677,7 +787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -688,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -699,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
@@ -711,30 +821,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19">
+        <v>1234567</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" location="view_type=form&amp;model=project.task&amp;action"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.25" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -742,18 +1089,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -788,7 +1135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -820,14 +1167,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -835,12 +1182,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,23 +1201,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -899,7 +1246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -925,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
+    <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>User</t>
   </si>
@@ -231,16 +232,88 @@
   <si>
     <t>TM04</t>
   </si>
+  <si>
+    <t>W01</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>LIENLT</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>192.168.0.200</t>
+  </si>
+  <si>
+    <t>ISO 8601</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>123456@a</t>
+  </si>
+  <si>
+    <t>vsii_project.vsii_JIRA_connector</t>
+  </si>
+  <si>
+    <t>collect_project_worklog</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Webservice Protocol</t>
+  </si>
+  <si>
+    <t>Webservice Host</t>
+  </si>
+  <si>
+    <t>Webservice Port</t>
+  </si>
+  <si>
+    <t>Webservice Path</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Decode Method Name</t>
+  </si>
+  <si>
+    <t>TestService3</t>
+  </si>
+  <si>
+    <t>issues.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +321,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,13 +329,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +357,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,6 +461,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,10 +565,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +599,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,23 +774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -709,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -717,12 +809,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -736,7 +828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -747,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -758,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -769,7 +861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -778,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -787,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -798,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -809,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
@@ -821,26 +913,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -888,7 +980,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="60">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -931,7 +1023,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -944,16 +1036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1003,7 +1095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1044,7 +1136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1058,30 +1150,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,18 +1181,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1135,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1167,14 +1259,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1182,12 +1274,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1202,22 +1294,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1283,4 +1375,126 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="17"/>
+    <col min="8" max="8" width="11.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="14.42578125" style="17" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="17"/>
+    <col min="13" max="14" width="12.42578125" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45">
+      <c r="A1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60">
+      <c r="B2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="17">
+        <v>8085</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="O3" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>User</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>LIENLT</t>
   </si>
   <si>
     <t>Get</t>
@@ -1379,37 +1376,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="12.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="17"/>
-    <col min="8" max="8" width="11.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="17"/>
-    <col min="10" max="10" width="14.42578125" style="17" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="17"/>
-    <col min="13" max="14" width="12.42578125" style="17" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="11.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="14.42578125" style="17" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="17"/>
+    <col min="12" max="13" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>83</v>
@@ -1424,30 +1421,27 @@
         <v>86</v>
       </c>
       <c r="H1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="45">
+      <c r="B2" s="17" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="60">
-      <c r="B2" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>72</v>
@@ -1458,14 +1452,14 @@
       <c r="E2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="17">
+        <v>8085</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="17">
-        <v>8085</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>76</v>
@@ -1473,27 +1467,24 @@
       <c r="J2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="17" t="s">
         <v>79</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="O3" s="25" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="N3" s="25" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -245,9 +245,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Get</t>
-  </si>
-  <si>
     <t>http</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>issues.json</t>
+  </si>
+  <si>
+    <t>8085</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -467,6 +467,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1382,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1403,22 +1406,22 @@
         <v>68</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>69</v>
@@ -1433,48 +1436,48 @@
         <v>11</v>
       </c>
       <c r="L1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45">
       <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="17">
-        <v>8085</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>User</t>
   </si>
@@ -254,9 +254,6 @@
     <t>ISO 8601</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -293,13 +290,22 @@
     <t>Decode Method Name</t>
   </si>
   <si>
-    <t>TestService3</t>
-  </si>
-  <si>
     <t>issues.json</t>
   </si>
   <si>
     <t>8085</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>TestService2</t>
+  </si>
+  <si>
+    <t>TestService1</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,6 +476,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,22 +1415,22 @@
         <v>68</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>69</v>
@@ -1436,18 +1445,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="45">
+    </row>
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="45">
       <c r="B2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="17">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>72</v>
@@ -1456,38 +1465,77 @@
         <v>73</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="N3" s="25" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="45">
+      <c r="B3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="N4" s="25" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>User</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Decode Method Name</t>
   </si>
   <si>
-    <t>issues.json</t>
-  </si>
-  <si>
     <t>8085</t>
   </si>
   <si>
@@ -302,10 +299,10 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>TestService2</t>
-  </si>
-  <si>
-    <t>TestService1</t>
+    <t>/rest/api/2/search?jql=updated%20%3E%20startOfWeek(-2)%20ORDER%20BY%20updated%20DESC&amp;startAt=0&amp;maxResults=1500&amp;fields=assignee,description,summary,created,updated,duedate,priority,status,worklog,key,id,project,timeestimate,timeoriginalestimate</t>
+  </si>
+  <si>
+    <t>TestService3</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1402,7 +1399,7 @@
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="7" max="7" width="11.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="17"/>
     <col min="9" max="9" width="14.42578125" style="17" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="17"/>
@@ -1451,12 +1448,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="45">
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="105">
       <c r="B2" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>72</v>
@@ -1465,16 +1462,16 @@
         <v>73</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>75</v>
@@ -1489,53 +1486,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45">
-      <c r="B3" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="N4" s="25" t="s">
+    <row r="3" spans="1:14">
+      <c r="N3" s="25" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5985" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
+    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
+    <sheet name="EditProject" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
   <si>
     <t>User</t>
   </si>
@@ -304,12 +306,96 @@
   <si>
     <t>TestService3</t>
   </si>
+  <si>
+    <t>PM06</t>
+  </si>
+  <si>
+    <t>Ref Contact</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Privacy / Visibility</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Approved Effort</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>Commercial Details</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Demo Project 2017</t>
+  </si>
+  <si>
+    <t>IBM Customer</t>
+  </si>
+  <si>
+    <t>SDC.2016-VSII.01</t>
+  </si>
+  <si>
+    <t>Employees Only</t>
+  </si>
+  <si>
+    <t>Phuong-Nguyen Thi Phuong</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
+  <si>
+    <t>VSII / SDC</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Internal Project</t>
+  </si>
+  <si>
+    <t>VSI-INTERNATIONAL, VSII</t>
+  </si>
+  <si>
+    <t>PM07</t>
+  </si>
+  <si>
+    <t>Demo Project 2018</t>
+  </si>
+  <si>
+    <t>VSII / TSC</t>
+  </si>
+  <si>
+    <t>PM08</t>
+  </si>
+  <si>
+    <t>PM09</t>
+  </si>
+  <si>
+    <t>Demo Project 2016</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -477,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -605,6 +695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,14 +871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -796,7 +887,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -807,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -815,12 +906,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -834,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -845,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -856,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -867,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -876,7 +967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -885,7 +976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -896,7 +987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -907,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
@@ -919,14 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -938,7 +1029,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -986,7 +1077,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60">
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1029,7 +1120,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1042,16 +1133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1101,7 +1192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1142,7 +1233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1156,14 +1247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1179,7 +1270,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1187,18 +1278,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1265,14 +1356,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1280,12 +1371,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1300,14 +1391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1315,7 +1406,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1344,7 +1435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1370,7 +1461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1384,14 +1475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
@@ -1407,7 +1498,7 @@
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
@@ -1448,7 +1539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="105">
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>91</v>
       </c>
@@ -1486,7 +1577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N3" s="25" t="s">
         <v>68</v>
       </c>
@@ -1497,4 +1588,487 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
   <si>
     <t>User</t>
   </si>
@@ -390,12 +390,18 @@
   <si>
     <t>PM11</t>
   </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>TestProject</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -566,6 +578,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,7 +675,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -695,7 +709,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,14 +884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -887,7 +900,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -898,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -906,12 +919,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -925,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -936,7 +949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -947,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -958,7 +971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -967,7 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -976,7 +989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -987,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -998,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1010,14 +1023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1029,7 +1042,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -1077,7 +1090,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="60">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1120,7 +1133,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1133,16 +1146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1192,7 +1205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1233,7 +1246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1247,14 +1260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1270,7 +1283,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1278,18 +1291,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1356,14 +1369,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1371,12 +1384,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1391,14 +1404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1406,7 +1419,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1475,14 +1488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
@@ -1498,7 +1511,7 @@
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="105">
       <c r="B2" s="17" t="s">
         <v>91</v>
       </c>
@@ -1577,9 +1590,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="N3" s="25" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1591,14 +1622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1613,7 +1644,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1648,7 +1679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -1680,12 +1711,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -1720,7 +1751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -1752,12 +1783,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -1792,7 +1823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -1818,7 +1849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1829,14 +1860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1851,7 +1882,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1886,7 +1917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -1918,12 +1949,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1958,7 +1989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -1990,12 +2021,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -2030,7 +2061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -2062,7 +2093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -561,25 +561,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,7 +1489,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1512,104 +1509,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="105">
-      <c r="B2" s="17" t="s">
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="105">
+      <c r="A2" s="29"/>
+      <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="19" t="s">
         <v>78</v>
       </c>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="N3" s="25" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1695,7 +1713,7 @@
       <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1767,7 +1785,7 @@
       <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1837,7 +1855,7 @@
       <c r="F8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1933,7 +1951,7 @@
       <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2005,7 +2023,7 @@
       <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2077,7 +2095,7 @@
       <c r="F8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H8" s="7" t="s">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
     <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
     <sheet name="EditProject" sheetId="8" r:id="rId8"/>
+    <sheet name="LoginTS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
   <si>
     <t>User</t>
   </si>
@@ -395,6 +396,18 @@
   </si>
   <si>
     <t>TestProject</t>
+  </si>
+  <si>
+    <t>anhptq</t>
+  </si>
+  <si>
+    <t>lienlt</t>
+  </si>
+  <si>
+    <t>nhungpth</t>
+  </si>
+  <si>
+    <t>LTS</t>
   </si>
 </sst>
 </file>
@@ -882,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,6 +1024,46 @@
     <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1488,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2120,4 +2173,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="133">
   <si>
     <t>User</t>
   </si>
@@ -395,9 +395,6 @@
     <t>W03</t>
   </si>
   <si>
-    <t>TestProject</t>
-  </si>
-  <si>
     <t>anhptq</t>
   </si>
   <si>
@@ -408,6 +405,30 @@
   </si>
   <si>
     <t>LTS</t>
+  </si>
+  <si>
+    <t>Project Key</t>
+  </si>
+  <si>
+    <t>Selenium Practice</t>
+  </si>
+  <si>
+    <t>SP-1</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>Project Department</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Project key</t>
   </si>
 </sst>
 </file>
@@ -525,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -590,6 +611,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1028,7 +1052,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -1039,7 +1063,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9">
         <v>12345678</v>
@@ -1047,7 +1071,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="9">
         <v>12345678</v>
@@ -1055,7 +1079,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="9">
         <v>12345678</v>
@@ -1063,7 +1087,7 @@
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1539,17 +1563,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="3" max="3" width="13" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="17"/>
@@ -1661,6 +1685,8 @@
         <v>68</v>
       </c>
     </row>
+    <row r="4" spans="1:14" s="30" customFormat="1"/>
+    <row r="5" spans="1:14" s="30" customFormat="1"/>
     <row r="6" spans="1:14">
       <c r="A6" s="26" t="s">
         <v>120</v>
@@ -1668,20 +1694,71 @@
       <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="C6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="30">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="26" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" ht="30">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1689,6 +1766,7 @@
     <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2187,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2198,7 +2276,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9">
         <v>12345678</v>
@@ -2206,7 +2284,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9">
         <v>12345678</v>
@@ -2214,7 +2292,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9">
         <v>12345678</v>
@@ -2222,7 +2300,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="136">
   <si>
     <t>User</t>
   </si>
@@ -429,6 +429,15 @@
   </si>
   <si>
     <t>Project key</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>Done By</t>
+  </si>
+  <si>
+    <t>Trang-Nguyen Thi Thu Trang</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -614,6 +623,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1563,17 +1575,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13" style="17" customWidth="1"/>
+    <col min="3" max="3" width="27" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="17"/>
@@ -1759,6 +1771,36 @@
       <c r="E12" s="19"/>
       <c r="F12" s="26" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="19"/>
+      <c r="B16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
   <si>
     <t>User</t>
   </si>
@@ -438,6 +438,63 @@
   </si>
   <si>
     <t>Trang-Nguyen Thi Thu Trang</t>
+  </si>
+  <si>
+    <t>W05</t>
+  </si>
+  <si>
+    <t>JiraBaseURL</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>time Spent</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>http://192.168.0.200:8085/secure/Dashboard.jspa</t>
+  </si>
+  <si>
+    <t>trangntt</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>ERPusername</t>
+  </si>
+  <si>
+    <t>ERPpassword</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>Lien-Le Thi Lien</t>
+  </si>
+  <si>
+    <t>timeSpentOnERP</t>
+  </si>
+  <si>
+    <t>doneByOnERP</t>
+  </si>
+  <si>
+    <t>W06</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>W07</t>
   </si>
 </sst>
 </file>
@@ -470,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -626,6 +689,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1575,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1588,11 +1663,12 @@
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="7" max="7" width="43.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="14.42578125" style="17" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="17"/>
+    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="17"/>
     <col min="12" max="13" width="12.42578125" style="17" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
@@ -1747,7 +1823,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:14" ht="30">
+    <row r="11" spans="1:14">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>130</v>
@@ -1795,12 +1871,198 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:11">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="26" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60">
+      <c r="B21" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="33">
+        <v>42455.683333333334</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="K22" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30">
+      <c r="A25" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60">
+      <c r="B26" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="J27" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60">
+      <c r="B31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="35" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
   <si>
     <t>User</t>
   </si>
@@ -467,9 +467,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>ERPusername</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>02:00</t>
   </si>
   <si>
-    <t>Lien-Le Thi Lien</t>
-  </si>
-  <si>
     <t>timeSpentOnERP</t>
   </si>
   <si>
@@ -495,6 +489,9 @@
   </si>
   <si>
     <t>W07</t>
+  </si>
+  <si>
+    <t>LIENLT</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1650,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1715,7 +1712,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="105">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="195">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -1899,16 +1896,16 @@
         <v>141</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="I20" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
@@ -1922,7 +1919,7 @@
         <v>144</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F21" s="33">
         <v>42455.683333333334</v>
@@ -1934,10 +1931,10 @@
         <v>144</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1947,7 +1944,7 @@
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>137</v>
@@ -1962,16 +1959,16 @@
         <v>140</v>
       </c>
       <c r="F25" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="H25" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
@@ -1985,7 +1982,7 @@
         <v>144</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>122</v>
@@ -1994,7 +1991,7 @@
         <v>144</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>135</v>
@@ -2002,12 +1999,12 @@
     </row>
     <row r="27" spans="1:11">
       <c r="J27" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>137</v>
@@ -2022,16 +2019,16 @@
         <v>140</v>
       </c>
       <c r="F30" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="H30" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
@@ -2045,7 +2042,7 @@
         <v>144</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>122</v>
@@ -2054,15 +2051,15 @@
         <v>144</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="J32" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,16 @@
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
-    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
-    <sheet name="EditProject" sheetId="8" r:id="rId8"/>
-    <sheet name="LoginTS" sheetId="9" r:id="rId9"/>
+    <sheet name="LoginTS" sheetId="9" r:id="rId7"/>
+    <sheet name="CreateNewProject" sheetId="10" r:id="rId8"/>
+    <sheet name="EditProject" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="166">
   <si>
     <t>User</t>
   </si>
@@ -338,15 +338,9 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Demo Project 2017</t>
-  </si>
-  <si>
     <t>IBM Customer</t>
   </si>
   <si>
-    <t>SDC.2016-VSII.01</t>
-  </si>
-  <si>
     <t>Employees Only</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>Internal Project</t>
   </si>
   <si>
-    <t>VSI-INTERNATIONAL, VSII</t>
-  </si>
-  <si>
     <t>PM07</t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t>PM09</t>
   </si>
   <si>
-    <t>Demo Project 2016</t>
-  </si>
-  <si>
     <t>PM10</t>
   </si>
   <si>
@@ -492,6 +480,54 @@
   </si>
   <si>
     <t>LIENLT</t>
+  </si>
+  <si>
+    <t>Demo Project 2022</t>
+  </si>
+  <si>
+    <t>VSII.2016-IBM.01</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>All Users</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>usernameMember</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>PM28</t>
+  </si>
+  <si>
+    <t>Quan-Pham Van Quan</t>
   </si>
 </sst>
 </file>
@@ -615,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -699,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,7 +1175,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -1147,7 +1186,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9">
         <v>12345678</v>
@@ -1155,7 +1194,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9">
         <v>12345678</v>
@@ -1163,7 +1202,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" s="9">
         <v>12345678</v>
@@ -1171,7 +1210,7 @@
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1774,23 +1813,23 @@
     <row r="5" spans="1:14" s="30" customFormat="1"/>
     <row r="6" spans="1:14">
       <c r="A6" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="30">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -1799,21 +1838,21 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30">
       <c r="A10" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>99</v>
@@ -1823,16 +1862,16 @@
     <row r="11" spans="1:14">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="19"/>
     </row>
@@ -1843,18 +1882,18 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -1864,7 +1903,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D16" s="19"/>
     </row>
@@ -1873,193 +1912,193 @@
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="H20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="B21" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F21" s="33">
         <v>42455.683333333334</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="K22" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="B26" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>147</v>
-      </c>
       <c r="I26" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="J27" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="B31" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="J32" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2112,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,34 +2225,34 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2168,7 +2262,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
@@ -2203,44 +2297,44 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>42</v>
@@ -2275,33 +2369,33 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>107</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="5" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2309,302 +2403,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="L3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="L6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="L9" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
   <si>
     <t>User</t>
   </si>
@@ -467,12 +467,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>ERPusername</t>
-  </si>
-  <si>
-    <t>ERPpassword</t>
-  </si>
-  <si>
     <t>02:00</t>
   </si>
   <si>
@@ -492,6 +486,12 @@
   </si>
   <si>
     <t>LIENLT</t>
+  </si>
+  <si>
+    <t>JiraBaseURl</t>
+  </si>
+  <si>
+    <t>timeSpentERp</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -691,13 +691,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,7 +1871,7 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:9">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1876,163 +1879,151 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30">
+    <row r="20" spans="1:9">
       <c r="A20" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="36">
+        <v>42455.683333333334</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="G25" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60">
-      <c r="B21" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="33">
-        <v>42455.683333333334</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="32" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30">
-      <c r="A25" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="60">
-      <c r="B26" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="J27" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60">
-      <c r="B31" s="17" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="60">
+      <c r="B31" s="23" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -2041,33 +2032,27 @@
       <c r="D31" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="E31" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="J32" s="35" t="s">
+    <row r="32" spans="1:9">
+      <c r="G32" s="34" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId3"/>
+    <hyperlink ref="B31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
   <si>
     <t>User</t>
   </si>
@@ -492,6 +492,69 @@
   </si>
   <si>
     <t>timeSpentERp</t>
+  </si>
+  <si>
+    <t>projectListXpath</t>
+  </si>
+  <si>
+    <t>issueListXpath</t>
+  </si>
+  <si>
+    <t>worklogListXpath</t>
+  </si>
+  <si>
+    <t>firstProjectXpath</t>
+  </si>
+  <si>
+    <t>firstWorklogXpath</t>
+  </si>
+  <si>
+    <t>html/body/div/section/div/div/section/div[1]/div[2]/div/table/tbody</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div/div/section/div[1]/div[2]/div/table/tbody/tr[1]/td[2]/a</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol/li["+issueListSize+"]/a/span[2]</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]/div/div[2]/a</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]/div/div[3]/ul/li/dl[1]/dd</t>
+  </si>
+  <si>
+    <t>firstWorklogNameXpath</t>
+  </si>
+  <si>
+    <t>firstWorklogTimeXpath</t>
+  </si>
+  <si>
+    <t>CheckJIRA</t>
+  </si>
+  <si>
+    <t>html/body/div/section/div/div/section/div[1]/div[2]/div/table/tbody/tr[1]/td[3]</t>
+  </si>
+  <si>
+    <t>firstProjectKeyXpath</t>
+  </si>
+  <si>
+    <t>firstIssueNameXpath</t>
+  </si>
+  <si>
+    <t>firstIssueKeyXpath</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol/li["+issueListSize+"]/a/span[1]</t>
   </si>
 </sst>
 </file>
@@ -615,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -701,6 +764,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,25 +1716,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="17" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="17"/>
+    <col min="8" max="8" width="24.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.42578125" style="17" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
@@ -2044,15 +2110,100 @@
         <v>150</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="30">
+      <c r="A34" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="225">
+      <c r="B35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="30">
+      <c r="N36" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="B21" r:id="rId2"/>
     <hyperlink ref="B26" r:id="rId3"/>
     <hyperlink ref="B31" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
     <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
     <sheet name="EditProject" sheetId="8" r:id="rId8"/>
-    <sheet name="LoginTS" sheetId="9" r:id="rId9"/>
+    <sheet name="Timesheet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="176">
   <si>
     <t>User</t>
   </si>
@@ -395,18 +395,12 @@
     <t>W03</t>
   </si>
   <si>
-    <t>anhptq</t>
-  </si>
-  <si>
     <t>lienlt</t>
   </si>
   <si>
     <t>nhungpth</t>
   </si>
   <si>
-    <t>LTS</t>
-  </si>
-  <si>
     <t>Project Key</t>
   </si>
   <si>
@@ -555,13 +549,22 @@
   </si>
   <si>
     <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol/li["+issueListSize+"]/a/span[1]</t>
+  </si>
+  <si>
+    <t>ProjectMember</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>PMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +589,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +645,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -678,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -769,6 +784,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -862,6 +880,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -896,6 +915,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,14 +1091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1087,7 +1107,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1106,12 +1126,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1167,7 +1187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1198,50 +1218,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,14 +1250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1269,7 +1269,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60">
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1360,7 +1360,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1373,16 +1373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1473,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1487,14 +1487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1510,7 +1510,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1518,18 +1518,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1596,14 +1596,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1611,12 +1611,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1631,14 +1631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1646,7 +1646,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1715,14 +1715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
@@ -1739,7 +1739,7 @@
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="195">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1839,9 +1839,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1"/>
-    <row r="5" spans="1:14" s="30" customFormat="1"/>
-    <row r="6" spans="1:14">
+    <row r="4" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -1849,21 +1849,21 @@
         <v>42</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="30">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1871,133 +1871,133 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="E20" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="F20" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="G20" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="60">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F21" s="36">
         <v>42455.683333333334</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2007,56 +2007,56 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="E25" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="F25" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="E26" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="G26" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2065,93 +2065,93 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="C30" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="33" t="s">
+      <c r="E34" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60">
-      <c r="B31" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="G32" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="30">
-      <c r="A34" s="34" t="s">
+      <c r="F34" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="I34" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>158</v>
-      </c>
       <c r="L34" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="225">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>75</v>
       </c>
@@ -2159,39 +2159,39 @@
         <v>76</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="G35" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="H35" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="J35" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="L35" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="30">
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="N36" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2208,14 +2208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2230,7 +2230,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2297,12 +2297,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2369,12 +2369,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -2435,7 +2435,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2446,14 +2446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2468,7 +2468,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -2535,12 +2535,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -2607,12 +2607,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>
@@ -2691,53 +2691,65 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="s">
-        <v>124</v>
+      <c r="C7" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
-    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
-    <sheet name="EditProject" sheetId="8" r:id="rId8"/>
-    <sheet name="Timesheet" sheetId="9" r:id="rId9"/>
+    <sheet name="ImportingService " sheetId="10" r:id="rId7"/>
+    <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
+    <sheet name="EditProject" sheetId="8" r:id="rId9"/>
+    <sheet name="Timesheet" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="171">
   <si>
     <t>User</t>
   </si>
@@ -401,93 +402,24 @@
     <t>nhungpth</t>
   </si>
   <si>
-    <t>Project Key</t>
-  </si>
-  <si>
     <t>Selenium Practice</t>
   </si>
   <si>
-    <t>SP-1</t>
-  </si>
-  <si>
     <t>W02</t>
   </si>
   <si>
-    <t>Project Department</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>Project key</t>
-  </si>
-  <si>
-    <t>W04</t>
-  </si>
-  <si>
-    <t>Done By</t>
-  </si>
-  <si>
-    <t>Trang-Nguyen Thi Thu Trang</t>
-  </si>
-  <si>
-    <t>W05</t>
-  </si>
-  <si>
-    <t>JiraBaseURL</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>time Spent</t>
-  </si>
-  <si>
-    <t>start time</t>
-  </si>
-  <si>
-    <t>http://192.168.0.200:8085/secure/Dashboard.jspa</t>
-  </si>
-  <si>
-    <t>trangntt</t>
-  </si>
-  <si>
     <t>12345678</t>
   </si>
   <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>timeSpentOnERP</t>
-  </si>
-  <si>
-    <t>doneByOnERP</t>
-  </si>
-  <si>
-    <t>W06</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>W07</t>
-  </si>
-  <si>
-    <t>LIENLT</t>
-  </si>
-  <si>
-    <t>JiraBaseURl</t>
-  </si>
-  <si>
-    <t>timeSpentERp</t>
-  </si>
-  <si>
     <t>projectListXpath</t>
   </si>
   <si>
@@ -533,24 +465,12 @@
     <t>firstWorklogTimeXpath</t>
   </si>
   <si>
-    <t>CheckJIRA</t>
-  </si>
-  <si>
     <t>html/body/div/section/div/div/section/div[1]/div[2]/div/table/tbody/tr[1]/td[3]</t>
   </si>
   <si>
     <t>firstProjectKeyXpath</t>
   </si>
   <si>
-    <t>firstIssueNameXpath</t>
-  </si>
-  <si>
-    <t>firstIssueKeyXpath</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol/li["+issueListSize+"]/a/span[1]</t>
-  </si>
-  <si>
     <t>ProjectMember</t>
   </si>
   <si>
@@ -558,13 +478,79 @@
   </si>
   <si>
     <t>PMO</t>
+  </si>
+  <si>
+    <t>firstIssueXpath</t>
+  </si>
+  <si>
+    <t>erpUsername</t>
+  </si>
+  <si>
+    <t>erpPassword</t>
+  </si>
+  <si>
+    <t>openerpProjectListXpath</t>
+  </si>
+  <si>
+    <t>openerpProjectNameXpath</t>
+  </si>
+  <si>
+    <t>defProjectName</t>
+  </si>
+  <si>
+    <t>defProjectKey</t>
+  </si>
+  <si>
+    <t>html/body/div/table/tbody/tr[3]/td[2]/div/div/div/div[1]/div/table/tbody[2]</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/table/tbody/tr[3]/td[2]/div/div/div/div[1]/div/table/tbody[2]/tr[5]/td[3]</t>
+  </si>
+  <si>
+    <t>defIssueType</t>
+  </si>
+  <si>
+    <t>defIssueName</t>
+  </si>
+  <si>
+    <t>defWorklogName</t>
+  </si>
+  <si>
+    <t>defWorklogTime</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Execute test</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Trang</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>preConditions</t>
+  </si>
+  <si>
+    <t>actualTimeSpent</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>actualTimeSpentUpdate</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -763,25 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -880,7 +848,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -915,7 +882,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1091,14 +1057,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1107,7 +1073,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1126,12 +1092,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1187,7 +1153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1218,29 +1184,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1249,15 +1215,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1269,7 +1302,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1350,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="60">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1360,7 +1393,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1373,16 +1406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1432,7 +1465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1473,7 +1506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1487,14 +1520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1510,7 +1543,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1518,18 +1551,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1596,14 +1629,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1611,12 +1644,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1631,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1646,7 +1679,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1701,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1715,16 +1748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
@@ -1736,10 +1769,12 @@
     <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.42578125" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="22" width="9.140625" style="17"/>
+    <col min="23" max="23" width="16.5703125" style="17" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="45">
       <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1816,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="24" customFormat="1" ht="195">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -1821,7 +1856,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1839,383 +1874,433 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="27" t="s">
+    <row r="4" spans="1:25" s="30" customFormat="1"/>
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="60">
+      <c r="A5" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y5" s="19"/>
+    </row>
+    <row r="6" spans="1:25" ht="225">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="R6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" ht="30">
       <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="36">
-        <v>42455.683333333334</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="M34" s="33" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="31" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="225" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="N36" s="34" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B26" r:id="rId3"/>
-    <hyperlink ref="B31" r:id="rId4"/>
-    <hyperlink ref="C35" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="45">
+      <c r="A1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="135">
+      <c r="A2" s="29"/>
+      <c r="B2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45">
+      <c r="A6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="315">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2230,7 +2315,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2265,7 +2350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2297,12 +2382,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2369,12 +2454,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2409,7 +2494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -2435,7 +2520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2445,15 +2530,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2468,7 +2553,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2503,7 +2588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -2535,12 +2620,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2575,7 +2660,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -2607,12 +2692,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -2647,7 +2732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -2679,7 +2764,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>
@@ -2688,71 +2773,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="191">
   <si>
     <t>User</t>
   </si>
@@ -545,12 +545,72 @@
   <si>
     <t>3h</t>
   </si>
+  <si>
+    <t>TS09</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Projects / VSII Leaves</t>
+  </si>
+  <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>044/04/2016</t>
+  </si>
+  <si>
+    <t>TS17</t>
+  </si>
+  <si>
+    <t>TS20</t>
+  </si>
+  <si>
+    <t>Name user</t>
+  </si>
+  <si>
+    <t>Time del</t>
+  </si>
+  <si>
+    <t>Ngoc-Nguyen Quynh Ngoc</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Tinh-Nguyen Thi Tinh</t>
+  </si>
+  <si>
+    <t>Tinh-Le Thi Tinh</t>
+  </si>
+  <si>
+    <t>Anh-Pham Thi Quynh Anh</t>
+  </si>
+  <si>
+    <t>TS22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +908,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -882,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,14 +1119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1073,7 +1135,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1084,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1092,12 +1154,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1111,7 +1173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1153,7 +1215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1173,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1184,29 +1246,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1216,20 +1278,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>146</v>
       </c>
@@ -1240,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>121</v>
       </c>
@@ -1248,12 +1310,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>148</v>
       </c>
@@ -1264,7 +1326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>122</v>
       </c>
@@ -1272,9 +1334,239 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="34" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="34" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1283,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1302,7 +1594,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -1350,7 +1642,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60">
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1393,7 +1685,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1406,16 +1698,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1465,7 +1757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1506,7 +1798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1520,14 +1812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1543,7 +1835,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1551,18 +1843,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1629,14 +1921,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1644,12 +1936,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1664,14 +1956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1679,7 +1971,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +2000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +2026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1748,14 +2040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
@@ -1774,7 +2066,7 @@
     <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45">
+    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
@@ -1816,7 +2108,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:25" s="24" customFormat="1" ht="195">
+    <row r="2" spans="1:25" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -1856,7 +2148,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1874,8 +2166,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="30" customFormat="1"/>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="60">
+    <row r="4" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>166</v>
       </c>
@@ -1950,7 +2242,7 @@
       </c>
       <c r="Y5" s="19"/>
     </row>
-    <row r="6" spans="1:25" ht="225">
+    <row r="6" spans="1:25" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>75</v>
@@ -2023,7 +2315,7 @@
       </c>
       <c r="Y6" s="19"/>
     </row>
-    <row r="7" spans="1:25" ht="30">
+    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2063,14 +2355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
@@ -2084,7 +2376,7 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
@@ -2126,7 +2418,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="135">
+    <row r="2" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -2166,7 +2458,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2184,7 +2476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>124</v>
       </c>
@@ -2223,7 +2515,7 @@
       </c>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="315">
+    <row r="7" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
         <v>75</v>
@@ -2260,7 +2552,7 @@
       </c>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2278,7 +2570,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2293,14 +2585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2315,7 +2607,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2350,7 +2642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2382,12 +2674,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2422,7 +2714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2454,12 +2746,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2786,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -2520,7 +2812,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2531,14 +2823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2553,7 +2845,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2588,7 +2880,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -2620,12 +2912,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2660,7 +2952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -2692,12 +2984,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -2732,7 +3024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -2764,7 +3056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,16 @@
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
-    <sheet name="ImportingService " sheetId="10" r:id="rId7"/>
-    <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
-    <sheet name="EditProject" sheetId="8" r:id="rId9"/>
-    <sheet name="Timesheet" sheetId="9" r:id="rId10"/>
+    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
+    <sheet name="EditProject" sheetId="8" r:id="rId8"/>
+    <sheet name="Timesheet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
   <si>
     <t>User</t>
   </si>
@@ -393,9 +392,6 @@
     <t>PM11</t>
   </si>
   <si>
-    <t>W03</t>
-  </si>
-  <si>
     <t>lienlt</t>
   </si>
   <si>
@@ -403,9 +399,6 @@
   </si>
   <si>
     <t>Selenium Practice</t>
-  </si>
-  <si>
-    <t>W02</t>
   </si>
   <si>
     <t>SP</t>
@@ -609,8 +602,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,7 +901,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -943,7 +935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,14 +1110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1135,7 +1126,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1154,12 +1145,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1215,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1235,7 +1226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1246,29 +1237,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1277,312 +1268,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1594,7 +1288,7 @@
     <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>67</v>
       </c>
@@ -1642,7 +1336,7 @@
       </c>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="60">
       <c r="A2" s="17"/>
       <c r="B2" s="19">
         <v>1234567</v>
@@ -1685,7 +1379,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1698,16 +1392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
@@ -1757,7 +1451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1798,7 +1492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1812,14 +1506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -1835,7 +1529,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1843,18 +1537,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1889,7 +1583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1921,14 +1615,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1936,12 +1630,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1956,14 +1650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1971,7 +1665,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -2000,7 +1694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +1720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2040,14 +1734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
@@ -2066,7 +1760,7 @@
     <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="45">
       <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
@@ -2108,7 +1802,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:25" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="24" customFormat="1" ht="195">
       <c r="A2" s="29"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -2148,7 +1842,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2166,83 +1860,83 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="30" customFormat="1"/>
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="60">
       <c r="A5" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="H5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="K5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="27" t="s">
+      <c r="O5" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="Q5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="S5" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="U5" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="V5" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="U5" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>161</v>
-      </c>
       <c r="W5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="X5" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="X5" s="27" t="s">
-        <v>169</v>
-      </c>
       <c r="Y5" s="19"/>
     </row>
-    <row r="6" spans="1:25" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="225">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>75</v>
@@ -2251,71 +1945,71 @@
         <v>76</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="H6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="M6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="S6" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U6" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="W6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="X6" s="19" t="s">
-        <v>170</v>
-      </c>
       <c r="Y6" s="19"/>
     </row>
-    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="30">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2341,7 +2035,7 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2355,244 +2049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2607,7 +2071,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2642,7 +2106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2674,12 +2138,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2714,7 +2178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2746,12 +2210,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2786,7 +2250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -2812,7 +2276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2822,15 +2286,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -2845,7 +2309,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2880,7 +2344,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -2912,12 +2376,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2952,7 +2416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -2984,12 +2448,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -3024,7 +2488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -3056,7 +2520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>
@@ -3065,4 +2529,301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="F20" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
   <si>
     <t>User</t>
   </si>
@@ -413,57 +413,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>projectListXpath</t>
-  </si>
-  <si>
-    <t>issueListXpath</t>
-  </si>
-  <si>
-    <t>worklogListXpath</t>
-  </si>
-  <si>
-    <t>firstProjectXpath</t>
-  </si>
-  <si>
-    <t>firstWorklogXpath</t>
-  </si>
-  <si>
-    <t>html/body/div/section/div/div/section/div[1]/div[2]/div/table/tbody</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div/div/section/div[1]/div[2]/div/table/tbody/tr[1]/td[2]/a</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[1]/div[1]/div/div[1]/div[2]/div/ol/li["+issueListSize+"]/a/span[2]</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]/div/div[2]/a</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/section/div[2]/div/section/div/div/div/div/div/div/div[2]/div[1]/div/div/div/div[1]/div[5]/div[2]/div[2]/div[2]/div["+worklogListSize+"]/div/div[3]/ul/li/dl[1]/dd</t>
-  </si>
-  <si>
-    <t>firstWorklogNameXpath</t>
-  </si>
-  <si>
-    <t>firstWorklogTimeXpath</t>
-  </si>
-  <si>
-    <t>html/body/div/section/div/div/section/div[1]/div[2]/div/table/tbody/tr[1]/td[3]</t>
-  </si>
-  <si>
-    <t>firstProjectKeyXpath</t>
-  </si>
-  <si>
     <t>ProjectMember</t>
   </si>
   <si>
@@ -473,72 +422,6 @@
     <t>PMO</t>
   </si>
   <si>
-    <t>firstIssueXpath</t>
-  </si>
-  <si>
-    <t>erpUsername</t>
-  </si>
-  <si>
-    <t>erpPassword</t>
-  </si>
-  <si>
-    <t>openerpProjectListXpath</t>
-  </si>
-  <si>
-    <t>openerpProjectNameXpath</t>
-  </si>
-  <si>
-    <t>defProjectName</t>
-  </si>
-  <si>
-    <t>defProjectKey</t>
-  </si>
-  <si>
-    <t>html/body/div/table/tbody/tr[3]/td[2]/div/div/div/div[1]/div/table/tbody[2]</t>
-  </si>
-  <si>
-    <t>html/body/div[1]/table/tbody/tr[3]/td[2]/div/div/div/div[1]/div/table/tbody[2]/tr[5]/td[3]</t>
-  </si>
-  <si>
-    <t>defIssueType</t>
-  </si>
-  <si>
-    <t>defIssueName</t>
-  </si>
-  <si>
-    <t>defWorklogName</t>
-  </si>
-  <si>
-    <t>defWorklogTime</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Execute test</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thu Trang</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>preConditions</t>
-  </si>
-  <si>
-    <t>actualTimeSpent</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>actualTimeSpentUpdate</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>TS09</t>
   </si>
   <si>
@@ -597,6 +480,96 @@
   </si>
   <si>
     <t>TS22</t>
+  </si>
+  <si>
+    <t>W07</t>
+  </si>
+  <si>
+    <t>Trang-Nguyen Thi Thu Trang</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>http://192.168.0.200:8085/secure/Dashboard.jspa</t>
+  </si>
+  <si>
+    <t>doneByOnERP</t>
+  </si>
+  <si>
+    <t>timeSpentERp</t>
+  </si>
+  <si>
+    <t>JiraBaseURl</t>
+  </si>
+  <si>
+    <t>W06</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>trangntt</t>
+  </si>
+  <si>
+    <t>timeSpentOnERP</t>
+  </si>
+  <si>
+    <t>time Spent</t>
+  </si>
+  <si>
+    <t>JiraBaseURL</t>
+  </si>
+  <si>
+    <t>W05</t>
+  </si>
+  <si>
+    <t>LIENLT</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>Done By</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Project Department</t>
+  </si>
+  <si>
+    <t>Project key</t>
+  </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>CreateProject</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>projectKey</t>
+  </si>
+  <si>
+    <t>projectDepartment</t>
+  </si>
+  <si>
+    <t>projectType</t>
+  </si>
+  <si>
+    <t>Pmacc</t>
+  </si>
+  <si>
+    <t>PMPass</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -732,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -781,9 +754,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,6 +778,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1735,75 +1709,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="17" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" style="17" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
     <col min="14" max="22" width="9.140625" style="17"/>
     <col min="23" max="23" width="16.5703125" style="17" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="45">
+      <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>86</v>
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:25" s="24" customFormat="1" ht="195">
-      <c r="A2" s="29"/>
+    <row r="2" spans="1:14" ht="195">
+      <c r="A2" s="28"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
@@ -1840,9 +1815,9 @@
       <c r="M2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1856,195 +1831,407 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="30" customFormat="1"/>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="60">
-      <c r="A5" s="31" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="E25" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="B30" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y5" s="19"/>
-    </row>
-    <row r="6" spans="1:25" ht="225">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="20" t="s">
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y6" s="19"/>
-    </row>
-    <row r="7" spans="1:25" ht="30">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="31" t="s">
-        <v>164</v>
-      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId3"/>
+    <hyperlink ref="B31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2052,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2122,7 +2309,7 @@
       <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2194,7 +2381,7 @@
       <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2264,7 +2451,7 @@
       <c r="F8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2360,7 +2547,7 @@
       <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2432,7 +2619,7 @@
       <c r="F5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2504,7 +2691,7 @@
       <c r="F8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2546,11 +2733,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
-        <v>144</v>
+      <c r="A1" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2560,21 +2747,21 @@
       <c r="B2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="D3" s="34" t="s">
-        <v>144</v>
+      <c r="D3" s="33" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
-        <v>146</v>
+      <c r="A6" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2584,243 +2771,243 @@
       <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="D8" s="34" t="s">
-        <v>146</v>
+      <c r="D8" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34" t="s">
-        <v>169</v>
+      <c r="A9" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>175</v>
+      <c r="D10" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="H11" s="34" t="s">
-        <v>169</v>
+      <c r="H11" s="33" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="34" t="s">
-        <v>177</v>
+      <c r="A12" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>175</v>
+      <c r="B13" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="F14" s="34" t="s">
-        <v>177</v>
+      <c r="F14" s="33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="34" t="s">
-        <v>179</v>
+      <c r="A15" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="C17" s="34" t="s">
-        <v>179</v>
+      <c r="C17" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="34" t="s">
-        <v>180</v>
+      <c r="A18" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>184</v>
+        <v>144</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="F20" s="34" t="s">
-        <v>180</v>
+      <c r="F20" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34" t="s">
-        <v>188</v>
+      <c r="A21" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>184</v>
+        <v>144</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>184</v>
+        <v>146</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>184</v>
+        <v>147</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>184</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>184</v>
+      <c r="E26" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="F27" s="34" t="s">
-        <v>188</v>
+      <c r="F27" s="33" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="CreateTask" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="CreateTask_Member" sheetId="4" r:id="rId2"/>
+    <sheet name="CreateTask_PM" sheetId="5" r:id="rId3"/>
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
-    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
-    <sheet name="EditProject" sheetId="8" r:id="rId8"/>
-    <sheet name="Timesheet" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
+    <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
+    <sheet name="EditProject" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
+    <sheet name="Timesheet" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="202">
   <si>
     <t>User</t>
   </si>
@@ -571,16 +573,83 @@
   <si>
     <t>1000</t>
   </si>
+  <si>
+    <t>4:00</t>
+  </si>
+  <si>
+    <t>Hehehehe</t>
+  </si>
+  <si>
+    <t>TM05</t>
+  </si>
+  <si>
+    <t>Invalid Action!
+Could not assign a task to a user not in the project.</t>
+  </si>
+  <si>
+    <t>TM06</t>
+  </si>
+  <si>
+    <t>Hehe Edited</t>
+  </si>
+  <si>
+    <t>TM18</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Wait for Approval</t>
+  </si>
+  <si>
+    <t>TM28</t>
+  </si>
+  <si>
+    <t>Number of Task want to select</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TM31</t>
+  </si>
+  <si>
+    <t>Test Admin can delete 1</t>
+  </si>
+  <si>
+    <t>Test Admin can delete 2</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>03/19/2016 20:14:12</t>
+  </si>
+  <si>
+    <t>Test Admin can delete 3</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>03/19/2016 20:14:13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,7 +657,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -596,14 +665,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -705,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -782,6 +851,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +945,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,6 +980,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,23 +1156,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1111,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1119,12 +1191,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1138,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1180,7 +1252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1211,29 +1283,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1242,29 +1314,341 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="9" t="s">
-        <v>67</v>
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>41</v>
@@ -1308,13 +1692,12 @@
       <c r="O1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" ht="60">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19">
-        <v>1234567</v>
-      </c>
+      <c r="P1" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
@@ -1341,42 +1724,400 @@
         <v>50</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="P3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="9"/>
+      <c r="E8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P12" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" location="view_type=form&amp;model=project.task&amp;action"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" customWidth="1"/>
+    <col min="18" max="18" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -1425,7 +2166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="165">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1453,23 +2194,486 @@
         <v>50</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P12" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1480,30 +2684,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.25" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1511,18 +2715,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1589,14 +2793,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1604,12 +2808,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1624,22 +2828,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +2872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1694,7 +2898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1708,34 +2912,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" style="17"/>
-    <col min="23" max="23" width="16.5703125" style="17" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="17"/>
+    <col min="4" max="4" width="18.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="26.375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="17" customWidth="1"/>
+    <col min="14" max="22" width="9.125" style="17"/>
+    <col min="23" max="23" width="16.625" style="17" customWidth="1"/>
+    <col min="24" max="16384" width="9.125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
@@ -1777,7 +2981,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="195">
+    <row r="2" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -1817,7 +3021,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1835,7 +3039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1843,7 +3047,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1851,7 +3055,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>171</v>
       </c>
@@ -1869,7 +3073,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
         <v>123</v>
@@ -1885,7 +3089,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1895,7 +3099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>167</v>
       </c>
@@ -1913,7 +3117,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>123</v>
@@ -1929,7 +3133,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1939,7 +3143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>165</v>
       </c>
@@ -1954,7 +3158,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="30">
+    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
         <v>122</v>
@@ -1967,7 +3171,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1976,7 +3180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>163</v>
       </c>
@@ -2003,7 +3207,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="23" t="s">
         <v>153</v>
@@ -2028,7 +3232,7 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2041,7 +3245,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>157</v>
       </c>
@@ -2068,7 +3272,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="45">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="23" t="s">
         <v>153</v>
@@ -2093,7 +3297,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2106,7 +3310,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>150</v>
       </c>
@@ -2130,7 +3334,7 @@
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:9" ht="45">
+    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="23" t="s">
         <v>153</v>
@@ -2152,7 +3356,7 @@
       </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2164,7 +3368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>172</v>
       </c>
@@ -2188,7 +3392,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>122</v>
@@ -2210,7 +3414,7 @@
       </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2236,29 +3440,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2293,7 +3509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2325,12 +3541,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2365,7 +3581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2397,12 +3613,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2437,7 +3653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -2463,7 +3679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2473,30 +3689,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2531,7 +3747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
@@ -2563,12 +3779,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2603,7 +3819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -2635,12 +3851,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -2675,7 +3891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
@@ -2707,7 +3923,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" s="1" t="s">
         <v>119</v>
       </c>
@@ -2716,301 +3932,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="H11" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,16 @@
     <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
     <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
-    <sheet name="EditProject" sheetId="8" r:id="rId9"/>
+    <sheet name="EditProject" sheetId="12" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
     <sheet name="Timesheet" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="213">
   <si>
     <t>User</t>
   </si>
@@ -385,9 +385,6 @@
     <t>PM09</t>
   </si>
   <si>
-    <t>Demo Project 2016</t>
-  </si>
-  <si>
     <t>PM10</t>
   </si>
   <si>
@@ -639,17 +636,53 @@
   </si>
   <si>
     <t>03/19/2016 20:14:13</t>
+  </si>
+  <si>
+    <t>All Users</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>usernameMember</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>PM28</t>
+  </si>
+  <si>
+    <t>Quan-Pham Van Quan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -657,7 +690,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -665,14 +698,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -774,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -852,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -913,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,10 +981,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,7 +1015,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1156,23 +1190,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1191,12 +1225,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1243,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1252,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1272,7 +1306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1283,29 +1317,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1315,307 +1349,307 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="33" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="D8" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>130</v>
-      </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
         <v>131</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>132</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>133</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="H11" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>139</v>
-      </c>
       <c r="C13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="F14" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="C17" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>141</v>
-      </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6">
       <c r="F20" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="32" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
       <c r="E25" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="F27" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1624,29 +1658,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="75">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1724,7 +1758,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>62</v>
@@ -1745,12 +1779,12 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -1797,10 +1831,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="60">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>55</v>
@@ -1828,7 +1862,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>62</v>
@@ -1839,14 +1873,14 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>41</v>
@@ -1894,10 +1928,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="75">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>55</v>
@@ -1925,7 +1959,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>62</v>
@@ -1935,18 +1969,18 @@
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="Q9" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="Q9" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>41</v>
@@ -1991,10 +2025,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
@@ -2022,7 +2056,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>62</v>
@@ -2033,55 +2067,55 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="P12" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+    <row r="15" spans="1:24">
+      <c r="B15" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="1:24">
+      <c r="B16" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="36" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="B18" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="19" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="C20" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2094,29 +2128,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.75" customWidth="1"/>
-    <col min="18" max="18" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
@@ -2166,7 +2200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="75">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -2194,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>62</v>
@@ -2210,12 +2244,12 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -2262,10 +2296,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="60">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>55</v>
@@ -2293,7 +2327,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>62</v>
@@ -2304,14 +2338,14 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>41</v>
@@ -2359,10 +2393,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="75">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>55</v>
@@ -2390,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>62</v>
@@ -2400,18 +2434,18 @@
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="Q9" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="Q9" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>41</v>
@@ -2456,10 +2490,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="60">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
@@ -2487,7 +2521,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>62</v>
@@ -2498,14 +2532,14 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="P12" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>41</v>
@@ -2550,10 +2584,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="60">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>55</v>
@@ -2581,7 +2615,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>62</v>
@@ -2592,9 +2626,9 @@
       <c r="O14" s="19"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="60">
       <c r="B15" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>55</v>
@@ -2610,7 +2644,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>60</v>
@@ -2622,22 +2656,22 @@
         <v>50</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="O15" s="19"/>
       <c r="P15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="60">
       <c r="B16" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>55</v>
@@ -2653,7 +2687,7 @@
         <v>58</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>60</v>
@@ -2665,10 +2699,10 @@
         <v>50</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>56</v>
@@ -2684,30 +2718,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2715,18 +2749,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2761,7 +2795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2793,14 +2827,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2808,12 +2842,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2828,22 +2862,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -2872,7 +2906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +2932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2912,34 +2946,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="17" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="17" customWidth="1"/>
-    <col min="14" max="22" width="9.125" style="17"/>
-    <col min="23" max="23" width="16.625" style="17" customWidth="1"/>
-    <col min="24" max="16384" width="9.125" style="17"/>
+    <col min="4" max="4" width="18.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
+    <col min="14" max="22" width="9.140625" style="17"/>
+    <col min="23" max="23" width="16.5703125" style="17" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
@@ -2981,7 +3015,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="195">
       <c r="A2" s="28"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -3021,7 +3055,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3039,7 +3073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -3047,7 +3081,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -3055,184 +3089,184 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="30">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" s="19"/>
       <c r="B21" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3242,62 +3276,62 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="E25" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="19"/>
       <c r="B26" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3307,56 +3341,56 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="E30" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="45">
       <c r="A31" s="19"/>
       <c r="B31" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3365,12 +3399,12 @@
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>42</v>
@@ -3385,20 +3419,20 @@
         <v>100</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>109</v>
@@ -3407,14 +3441,14 @@
         <v>110</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3423,7 +3457,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I37"/>
     </row>
@@ -3440,41 +3474,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="29.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -3509,7 +3543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -3541,12 +3575,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -3581,7 +3615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3613,12 +3647,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -3653,7 +3687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -3679,7 +3713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3690,242 +3724,154 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="29.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L9" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
     <sheet name="EditProject" sheetId="12" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
-    <sheet name="Timesheet" sheetId="9" r:id="rId11"/>
+    <sheet name="Timesheet" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="228">
   <si>
     <t>User</t>
   </si>
@@ -673,12 +673,57 @@
   <si>
     <t>Quan-Pham Van Quan</t>
   </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Date From</t>
+  </si>
+  <si>
+    <t>Date To</t>
+  </si>
+  <si>
+    <t>TotalTimesheet</t>
+  </si>
+  <si>
+    <t>Total Timesheet</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Create button</t>
+  </si>
+  <si>
+    <t>Import button</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>The following fields are invalid:</t>
+  </si>
+  <si>
+    <t>TS26</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +1026,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1015,6 +1061,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1190,14 +1237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1206,7 +1253,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1217,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1225,12 +1272,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1286,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +1342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1306,7 +1353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1317,29 +1364,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1349,277 +1396,363 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="H3" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C8" s="32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" s="33" t="s">
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="33" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C13" s="32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="33" t="s">
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
         <v>130</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E15" t="s">
         <v>131</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" t="s">
         <v>132</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C16" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D16" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E16" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="H11" s="33" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="33" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>131</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>132</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="32" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C19" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="33" t="s">
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="32" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="33" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>127</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" t="s">
         <v>141</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -1627,29 +1760,195 @@
         <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" s="33" t="s">
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="33" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="32"/>
+      <c r="E46" s="33" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1658,14 +1957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1680,7 +1979,7 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
@@ -1730,7 +2029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="75">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1779,12 +2078,12 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -1831,7 +2130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="60">
+    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -1873,12 +2172,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -1928,7 +2227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="75">
+    <row r="8" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -1973,12 +2272,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2025,7 +2324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60">
+    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -2067,12 +2366,12 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>185</v>
       </c>
@@ -2080,27 +2379,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>190</v>
       </c>
@@ -2108,12 +2407,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>190</v>
       </c>
@@ -2128,14 +2427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -2150,7 +2449,7 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +2499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="75">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -2244,12 +2543,12 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -2296,7 +2595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -2338,12 +2637,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -2393,7 +2692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="75">
+    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -2438,12 +2737,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2490,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="60">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -2532,12 +2831,12 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
@@ -2584,7 +2883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="60">
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
         <v>194</v>
@@ -2626,7 +2925,7 @@
       <c r="O14" s="19"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="60">
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>195</v>
       </c>
@@ -2669,7 +2968,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="60">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>198</v>
       </c>
@@ -2718,14 +3017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -2741,7 +3040,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2749,18 +3048,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2795,7 +3094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2827,14 +3126,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2842,12 +3141,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2862,14 +3161,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -2877,7 +3176,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2932,7 +3231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2946,14 +3245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="17" customWidth="1"/>
@@ -2973,7 +3272,7 @@
     <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
@@ -3015,7 +3314,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="195">
+    <row r="2" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -3055,7 +3354,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3073,7 +3372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -3081,7 +3380,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -3089,7 +3388,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>170</v>
       </c>
@@ -3107,7 +3406,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
         <v>122</v>
@@ -3123,7 +3422,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3133,7 +3432,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>166</v>
       </c>
@@ -3151,7 +3450,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>122</v>
@@ -3167,7 +3466,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3177,7 +3476,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>164</v>
       </c>
@@ -3192,7 +3491,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="30">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
         <v>121</v>
@@ -3205,7 +3504,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3214,7 +3513,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>162</v>
       </c>
@@ -3241,7 +3540,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23" t="s">
         <v>152</v>
@@ -3266,7 +3565,7 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3279,7 +3578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>156</v>
       </c>
@@ -3306,7 +3605,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="45">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="23" t="s">
         <v>152</v>
@@ -3331,7 +3630,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3344,7 +3643,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>149</v>
       </c>
@@ -3368,7 +3667,7 @@
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:9" ht="45">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="23" t="s">
         <v>152</v>
@@ -3390,7 +3689,7 @@
       </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3402,7 +3701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
@@ -3426,7 +3725,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>121</v>
@@ -3448,7 +3747,7 @@
       </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3474,26 +3773,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -3508,7 +3807,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -3543,7 +3842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -3575,12 +3874,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -3615,7 +3914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3647,12 +3946,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -3687,7 +3986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -3713,7 +4012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3724,14 +4023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -3740,7 +4039,7 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -3751,7 +4050,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>201</v>
       </c>
@@ -3759,12 +4058,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -3772,17 +4071,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -3796,17 +4095,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>203</v>
       </c>
@@ -3823,7 +4122,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3837,12 +4136,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
@@ -3859,7 +4158,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>212</v>
       </c>
@@ -3869,7 +4168,7 @@
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
         <v>211</v>
       </c>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,12 @@
     <sheet name="CreateTask_PM" sheetId="5" r:id="rId3"/>
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId4"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId5"/>
-    <sheet name="ServiceImporting" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
-    <sheet name="CreateNewProject" sheetId="7" r:id="rId8"/>
-    <sheet name="EditProject" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
-    <sheet name="Timesheet" sheetId="13" r:id="rId11"/>
+    <sheet name="ServiceImporting" sheetId="14" r:id="rId6"/>
+    <sheet name="CreateNewProject" sheetId="7" r:id="rId7"/>
+    <sheet name="EditProject" sheetId="12" r:id="rId8"/>
+    <sheet name="Timesheet" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -722,8 +720,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,12 +780,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,13 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -904,35 +896,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1026,7 +1006,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1061,7 +1040,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1237,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1253,7 +1231,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1272,12 +1250,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1333,7 +1311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1364,29 +1342,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1395,576 +1373,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="H3" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="32"/>
-      <c r="D6" s="31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="32"/>
-      <c r="D41" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="32"/>
-      <c r="E46" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1979,8 +1396,8 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -2029,7 +1446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="75">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -2078,12 +1495,12 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -2130,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="60">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -2172,12 +1589,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -2227,7 +1644,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="75">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -2272,12 +1689,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2324,7 +1741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -2366,53 +1783,53 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:24">
+      <c r="A13" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="C17" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="C20" s="9" t="s">
         <v>190</v>
       </c>
@@ -2427,14 +1844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -2449,8 +1866,8 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -2499,7 +1916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="75">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -2543,12 +1960,12 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -2595,7 +2012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="60">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -2637,12 +2054,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -2692,7 +2109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="75">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -2737,12 +2154,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2789,7 +2206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="60">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -2831,12 +2248,12 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
@@ -2883,7 +2300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="60">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
         <v>194</v>
@@ -2925,7 +2342,7 @@
       <c r="O14" s="19"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="60">
       <c r="B15" s="20" t="s">
         <v>195</v>
       </c>
@@ -2968,7 +2385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="60">
       <c r="B16" s="20" t="s">
         <v>198</v>
       </c>
@@ -3017,14 +2434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -3040,7 +2457,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3048,18 +2465,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3094,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -3126,14 +2543,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3141,12 +2558,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -3161,14 +2578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -3176,7 +2593,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -3205,7 +2622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -3231,7 +2648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -3245,77 +2662,69 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" style="17"/>
-    <col min="23" max="23" width="16.5703125" style="17" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" ht="45">
+      <c r="A1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="150">
       <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
@@ -3352,266 +2761,251 @@
       <c r="M2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="25" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="N3" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:14" ht="30">
+      <c r="A5" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30">
+      <c r="B6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="F7" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="25" t="s">
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    <row r="13" spans="1:14" ht="30">
+      <c r="A13" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30">
+      <c r="B14" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="26" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19" t="s">
+      <c r="F17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
+      <c r="B18" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="F18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="I19" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75">
+      <c r="B22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="26" t="s">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="I23" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="26" t="s">
+      <c r="F25" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="75">
       <c r="B26" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>125</v>
@@ -3619,180 +3013,86 @@
       <c r="E26" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="F26" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="H27" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="20" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="H31" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B26" r:id="rId3"/>
-    <hyperlink ref="B31" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B26" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -3807,7 +3107,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -3842,7 +3142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -3874,12 +3174,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -3914,7 +3214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3946,12 +3246,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -3986,7 +3286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -4012,7 +3312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -4022,15 +3322,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -4039,7 +3339,7 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -4050,7 +3350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="5" t="s">
         <v>201</v>
       </c>
@@ -4058,12 +3358,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -4071,17 +3371,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4095,17 +3395,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="5"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>203</v>
       </c>
@@ -4122,26 +3422,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="F12" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
@@ -4158,17 +3458,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="F15" s="1" t="s">
         <v>211</v>
       </c>
@@ -4177,4 +3477,553 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="28"/>
+      <c r="H3" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="28"/>
+      <c r="D6" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="J14" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="G20" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="D29" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="D36" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" s="28"/>
+      <c r="D41" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="28"/>
+      <c r="E46" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14760" windowHeight="5925" tabRatio="842" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="229">
   <si>
     <t>User</t>
   </si>
@@ -716,12 +716,15 @@
   <si>
     <t>Approved</t>
   </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1009,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1040,6 +1044,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1215,14 +1220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -1231,7 +1236,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1250,12 +1255,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
@@ -1311,7 +1316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1342,29 +1347,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -1374,14 +1379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1396,7 +1401,7 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="75">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1495,12 +1500,12 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="60">
+    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -1589,12 +1594,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="75">
+    <row r="8" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -1689,12 +1694,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -1741,7 +1746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="60">
+    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -1783,12 +1788,12 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>185</v>
       </c>
@@ -1796,27 +1801,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>190</v>
       </c>
@@ -1824,12 +1829,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>190</v>
       </c>
@@ -1844,14 +1849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1866,7 +1871,7 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="75">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
         <v>55</v>
@@ -1960,12 +1965,12 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>180</v>
@@ -2054,12 +2059,12 @@
       <c r="O5" s="19"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="75">
+    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
         <v>180</v>
@@ -2154,12 +2159,12 @@
       </c>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q9" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="60">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>184</v>
@@ -2248,12 +2253,12 @@
       <c r="O11" s="19"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="60">
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
         <v>194</v>
@@ -2342,7 +2347,7 @@
       <c r="O14" s="19"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="60">
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>195</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="60">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>198</v>
       </c>
@@ -2434,14 +2439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
@@ -2457,7 +2462,7 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2465,18 +2470,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2543,14 +2548,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2558,12 +2563,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2578,14 +2583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -2593,7 +2598,7 @@
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2648,7 +2653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2662,14 +2667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -2683,7 +2688,7 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>68</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="150">
+    <row r="2" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
@@ -2762,12 +2767,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N3" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>166</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>122</v>
       </c>
@@ -2798,12 +2803,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" s="33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>170</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
@@ -2834,12 +2839,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>164</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>121</v>
       </c>
@@ -2864,12 +2869,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>162</v>
       </c>
@@ -2895,7 +2900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>152</v>
       </c>
@@ -2918,12 +2923,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>156</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>152</v>
       </c>
@@ -2972,12 +2977,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>149</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>152</v>
       </c>
@@ -3020,12 +3025,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H27" s="33" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>171</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>121</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31" s="33" t="s">
         <v>171</v>
       </c>
@@ -3085,14 +3090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -3107,7 +3112,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
@@ -3174,12 +3179,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
@@ -3246,12 +3251,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>103</v>
@@ -3312,7 +3317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3323,14 +3328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -3339,7 +3344,7 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>201</v>
       </c>
@@ -3358,12 +3363,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -3371,17 +3376,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -3395,17 +3400,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>203</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3436,12 +3441,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>212</v>
       </c>
@@ -3468,7 +3473,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
         <v>211</v>
       </c>
@@ -3480,20 +3485,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>213</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>214</v>
       </c>
@@ -3536,13 +3541,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="28"/>
       <c r="H3" s="27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>219</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>119</v>
       </c>
@@ -3561,13 +3566,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="28"/>
       <c r="D6" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>126</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>119</v>
       </c>
@@ -3634,12 +3639,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>120</v>
       </c>
@@ -3694,12 +3699,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>129</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>119</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>134</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
@@ -3742,12 +3747,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H17" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>137</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>138</v>
       </c>
@@ -3784,12 +3789,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G20" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>139</v>
       </c>
@@ -3797,17 +3802,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>140</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -3838,12 +3843,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>140</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>143</v>
       </c>
@@ -3863,12 +3868,12 @@
       </c>
       <c r="E28" s="28"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>148</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -3888,7 +3893,7 @@
       </c>
       <c r="E31" s="28"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -3897,7 +3902,7 @@
       </c>
       <c r="E32" s="28"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -3906,7 +3911,7 @@
       </c>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -3915,7 +3920,7 @@
       </c>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>56</v>
       </c>
@@ -3924,12 +3929,12 @@
       </c>
       <c r="E35" s="28"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>225</v>
       </c>
@@ -3940,7 +3945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>145</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>146</v>
       </c>
@@ -3964,13 +3969,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" s="28"/>
       <c r="D41" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>225</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>143</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>145</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>146</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="28"/>
       <c r="E46" s="29" t="s">
         <v>225</v>
